--- a/May/Othes/Service Symphony.xlsx
+++ b/May/Othes/Service Symphony.xlsx
@@ -52,10 +52,10 @@
     <t xml:space="preserve">              Imran Nazir (Kabir)</t>
   </si>
   <si>
-    <t xml:space="preserve">      Date : 01.05.19</t>
-  </si>
-  <si>
     <t>IMEI No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Date : 08.05.19</t>
   </si>
 </sst>
 </file>
@@ -173,6 +173,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -183,23 +200,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -615,47 +615,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>6</v>
@@ -910,33 +910,33 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" s="21" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:7" s="15" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="17" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+    <row r="28" spans="1:7" s="12" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>

--- a/May/Othes/Service Symphony.xlsx
+++ b/May/Othes/Service Symphony.xlsx
@@ -55,7 +55,7 @@
     <t>IMEI No</t>
   </si>
   <si>
-    <t xml:space="preserve">      Date : 08.05.19</t>
+    <t xml:space="preserve">      Date : 12.05.19</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/May/Othes/Service Symphony.xlsx
+++ b/May/Othes/Service Symphony.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Madrasha Market,  Bagha Bazar, Rajshahi</t>
   </si>
   <si>
-    <t>Phone Service List</t>
-  </si>
-  <si>
     <t>Phone Ready By</t>
   </si>
   <si>
@@ -55,14 +52,20 @@
     <t>IMEI No</t>
   </si>
   <si>
-    <t xml:space="preserve">      Date : 12.05.19</t>
+    <t>Distributor: Symphony(Mobile Handset) Edison-Group</t>
+  </si>
+  <si>
+    <t>Symphony Phone Service List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Date : </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,12 +81,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Bauhaus 93"/>
-      <family val="5"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -93,6 +90,26 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -113,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -145,21 +162,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -182,7 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,15 +218,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,13 +256,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -264,13 +305,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -597,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -615,351 +656,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="8.25" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" customHeight="1">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="33" customHeight="1">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" customHeight="1">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="33" customHeight="1">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="33" customHeight="1">
+      <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="33" customHeight="1">
+      <c r="A15" s="5">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="33" customHeight="1">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="33" customHeight="1">
+      <c r="A17" s="5">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="A18" s="5">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="33" customHeight="1">
-      <c r="A9" s="6">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="33" customHeight="1">
-      <c r="A11" s="6">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" customHeight="1">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="33" customHeight="1">
-      <c r="A13" s="6">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="33" customHeight="1">
+      <c r="A19" s="5">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="33" customHeight="1">
+      <c r="A20" s="5">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" customHeight="1">
+      <c r="A21" s="5">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="33" customHeight="1">
+      <c r="A22" s="5">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="33" customHeight="1">
+      <c r="A23" s="5">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="33" customHeight="1">
+      <c r="A24" s="5">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" customHeight="1">
+      <c r="A25" s="5">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="33" customHeight="1">
+      <c r="A26" s="5">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="3" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1">
-      <c r="A14" s="6">
+      <c r="B28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" customHeight="1">
-      <c r="A15" s="6">
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="33" customHeight="1">
-      <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" customHeight="1">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="33" customHeight="1">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="33" customHeight="1">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="33" customHeight="1">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="3" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" s="15" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" ht="27.95" customHeight="1">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31"/>
+    <row r="31" spans="1:7" ht="27.95" customHeight="1">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A27:B27"/>
+  <mergeCells count="7">
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/May/Othes/Service Symphony.xlsx
+++ b/May/Othes/Service Symphony.xlsx
@@ -211,35 +211,35 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,7 +321,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10458450" y="10372725"/>
+          <a:off x="10458450" y="10544175"/>
           <a:ext cx="1628775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -641,7 +641,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G30" sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,65 +656,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="8.25" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="18.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -749,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -773,7 +773,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
@@ -963,10 +963,10 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -976,8 +976,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="11" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
